--- a/01files/智能家居引脚定义.xlsx
+++ b/01files/智能家居引脚定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8385"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="智能家居引脚定义" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>基于STM32的智能家居引脚定义</t>
   </si>
@@ -58,6 +58,9 @@
     <t>PA4/SPI1_NSS/ADC_IN4</t>
   </si>
   <si>
+    <t>人体传感器指示灯</t>
+  </si>
+  <si>
     <t>PA5/SPI1_SCK/ADC_IN5</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t>PB3</t>
+  </si>
+  <si>
+    <t>风扇</t>
   </si>
   <si>
     <t>PB4</t>
@@ -168,9 +174,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -196,6 +202,128 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -203,128 +331,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -335,43 +341,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,127 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,9 +537,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,6 +590,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,56 +626,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -632,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,10 +650,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,118 +662,118 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1132,8 +1138,8 @@
   <sheetPr/>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1245,7 +1251,9 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1255,7 +1263,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1267,7 +1275,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1279,9 +1287,11 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1291,7 +1301,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1303,13 +1313,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1320,7 +1330,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -1335,7 +1345,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1347,7 +1357,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1359,10 +1369,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1373,7 +1383,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1385,7 +1395,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1397,7 +1407,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1409,7 +1419,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1421,9 +1431,11 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1433,7 +1445,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1445,7 +1457,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1457,7 +1469,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1469,7 +1481,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1481,10 +1493,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1495,7 +1507,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1507,7 +1519,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1519,7 +1531,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1531,10 +1543,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1545,7 +1557,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1557,7 +1569,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1569,7 +1581,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1581,7 +1593,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1593,7 +1605,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1605,7 +1617,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1617,7 +1629,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1629,7 +1641,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>

--- a/01files/智能家居引脚定义.xlsx
+++ b/01files/智能家居引脚定义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>基于STM32的智能家居引脚定义</t>
   </si>
@@ -43,6 +43,9 @@
     <t>PA1/ADC_IN1/TIM2_CH2</t>
   </si>
   <si>
+    <t>蜂鸣器</t>
+  </si>
+  <si>
     <t>PA2/USART2_TX/ADC_IN3/TIM2_CH3</t>
   </si>
   <si>
@@ -115,9 +118,15 @@
     <t>PB4</t>
   </si>
   <si>
+    <t>呼吸灯</t>
+  </si>
+  <si>
     <t>PB5</t>
   </si>
   <si>
+    <t>光敏二极管</t>
+  </si>
+  <si>
     <t>PB6/I2C1_SCL/TIM4_CH1</t>
   </si>
   <si>
@@ -155,6 +164,9 @@
   </si>
   <si>
     <t>PC13</t>
+  </si>
+  <si>
+    <t>调试灯</t>
   </si>
   <si>
     <t>PC14/OSC32_IN</t>
@@ -174,9 +186,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -189,14 +201,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,128 +343,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -341,187 +353,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,22 +547,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,17 +601,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,21 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -632,16 +633,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +662,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1139,7 +1151,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:J21"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1207,7 +1219,9 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1217,13 +1231,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1234,10 +1248,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1249,10 +1263,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1263,7 +1277,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1275,7 +1289,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1287,10 +1301,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1301,7 +1315,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1313,13 +1327,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1330,10 +1344,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1345,7 +1359,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1357,7 +1371,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1369,10 +1383,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1383,7 +1397,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1395,7 +1409,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1407,7 +1421,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1419,7 +1433,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1431,10 +1445,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1445,9 +1459,11 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1457,9 +1473,11 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1469,7 +1487,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1481,7 +1499,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1493,10 +1511,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1507,7 +1525,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1519,7 +1537,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1531,7 +1549,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1543,10 +1561,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1557,7 +1575,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1569,7 +1587,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1581,7 +1599,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1593,9 +1611,11 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1605,7 +1625,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1617,7 +1637,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1629,7 +1649,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1641,7 +1661,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>

--- a/01files/智能家居引脚定义.xlsx
+++ b/01files/智能家居引脚定义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>基于STM32的智能家居引脚定义</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>PB9/TIM4_CH4</t>
+  </si>
+  <si>
+    <t>门锁</t>
   </si>
   <si>
     <t>PB10/I2C2_SCL/USART3_TX</t>
@@ -188,8 +191,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -200,6 +203,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -215,13 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -231,7 +309,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,39 +323,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,59 +346,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,31 +356,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,13 +500,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,133 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,17 +550,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,22 +593,33 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,7 +628,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,36 +647,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,133 +665,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,7 +1154,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="F27" sqref="F27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1527,7 +1530,9 @@
       <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1537,7 +1542,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1549,7 +1554,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1561,10 +1566,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1575,7 +1580,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1587,7 +1592,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1599,7 +1604,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1611,10 +1616,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1625,7 +1630,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1637,7 +1642,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1649,7 +1654,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1661,7 +1666,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>

--- a/01files/智能家居引脚定义.xlsx
+++ b/01files/智能家居引脚定义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>基于STM32的智能家居引脚定义</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>PB4</t>
-  </si>
-  <si>
-    <t>呼吸灯</t>
   </si>
   <si>
     <t>PB5</t>
@@ -189,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -200,6 +197,135 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,138 +338,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -356,25 +353,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,157 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,6 +544,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -574,37 +621,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,40 +644,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,133 +662,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,7 +1151,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:J27"/>
+      <selection activeCell="F3" sqref="F3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1464,9 +1461,7 @@
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1476,10 +1471,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1490,7 +1485,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1502,7 +1497,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1514,10 +1509,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1528,10 +1523,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1542,7 +1537,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1554,7 +1549,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1566,10 +1561,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1580,7 +1575,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1592,7 +1587,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1604,7 +1599,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1616,10 +1611,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1630,7 +1625,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1642,7 +1637,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1654,7 +1649,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1666,7 +1661,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>

--- a/01files/智能家居引脚定义.xlsx
+++ b/01files/智能家居引脚定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="19770" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="智能家居引脚定义" sheetId="1" r:id="rId1"/>
@@ -188,8 +188,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -208,7 +208,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,7 +245,92 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,98 +343,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,31 +353,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,13 +491,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,133 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,6 +544,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,21 +578,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,10 +650,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,16 +662,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,115 +680,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:J3"/>
+      <selection activeCell="F23" sqref="F23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/01files/智能家居引脚定义.xlsx
+++ b/01files/智能家居引脚定义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>基于STM32的智能家居引脚定义</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>PA5/SPI1_SCK/ADC_IN5</t>
+  </si>
+  <si>
+    <t>烟雾传感器</t>
   </si>
   <si>
     <t>PA6/SPI1_MISO/ADC_IN6/TIM3_CH2</t>
@@ -186,10 +189,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -201,7 +204,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +236,83 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,37 +332,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,76 +346,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,31 +356,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,151 +506,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,6 +547,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -558,26 +570,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,26 +589,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +603,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,16 +632,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,133 +665,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,7 +1154,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:J23"/>
+      <selection activeCell="F8" sqref="F8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1279,7 +1282,9 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1289,7 +1294,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1301,7 +1306,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
@@ -1315,7 +1320,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1327,13 +1332,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1344,7 +1349,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -1359,7 +1364,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1371,7 +1376,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1383,10 +1388,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1397,7 +1402,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1409,7 +1414,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1421,7 +1426,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1433,7 +1438,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1445,10 +1450,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1459,7 +1464,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1471,10 +1476,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1485,7 +1490,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1497,7 +1502,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1509,10 +1514,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1523,10 +1528,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1537,7 +1542,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1549,7 +1554,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1561,10 +1566,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1575,7 +1580,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1587,7 +1592,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1599,7 +1604,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1611,10 +1616,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1625,7 +1630,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1637,7 +1642,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1649,7 +1654,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1661,7 +1666,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
